--- a/Python Foundation/Aula 8/WebScrapping Trainning.xlsx
+++ b/Python Foundation/Aula 8/WebScrapping Trainning.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="597">
   <si>
     <t>titulo</t>
   </si>
@@ -88,15 +88,15 @@
     <t>Seven: Os Sete Crimes Capitais</t>
   </si>
   <si>
+    <t>O Silêncio dos Inocentes</t>
+  </si>
+  <si>
+    <t>Cidade de Deus</t>
+  </si>
+  <si>
     <t>A Vida é Bela</t>
   </si>
   <si>
-    <t>Cidade de Deus</t>
-  </si>
-  <si>
-    <t>O Silêncio dos Inocentes</t>
-  </si>
-  <si>
     <t>A Felicidade Não se Compra</t>
   </si>
   <si>
@@ -109,49 +109,55 @@
     <t>A Viagem de Chihiro</t>
   </si>
   <si>
+    <t>Interestelar</t>
+  </si>
+  <si>
     <t>À Espera de um Milagre</t>
   </si>
   <si>
-    <t>Interestelar</t>
-  </si>
-  <si>
     <t>Parasita</t>
   </si>
   <si>
     <t>O Profissional</t>
   </si>
   <si>
+    <t>Harakiri</t>
+  </si>
+  <si>
+    <t>O Pianista</t>
+  </si>
+  <si>
     <t>Os Suspeitos</t>
   </si>
   <si>
-    <t>Harakiri</t>
+    <t>O Exterminador do futuro 2: O julgamento final</t>
+  </si>
+  <si>
+    <t>De Volta para o Futuro</t>
+  </si>
+  <si>
+    <t>Psicose</t>
+  </si>
+  <si>
+    <t>Tempos Modernos</t>
   </si>
   <si>
     <t>O Rei Leão</t>
   </si>
   <si>
-    <t>O Pianista</t>
-  </si>
-  <si>
-    <t>De Volta para o Futuro</t>
-  </si>
-  <si>
-    <t>O Exterminador do Futuro 2: O Julgamento Final</t>
-  </si>
-  <si>
     <t>A Outra História Americana</t>
   </si>
   <si>
-    <t>Tempos Modernos</t>
-  </si>
-  <si>
-    <t>Psicose</t>
+    <t>Luzes da Cidade</t>
+  </si>
+  <si>
+    <t>Túmulo dos Vagalumes</t>
   </si>
   <si>
     <t>Gladiador</t>
   </si>
   <si>
-    <t>Luzes da Cidade</t>
+    <t>Whiplash: Em Busca da Perfeição</t>
   </si>
   <si>
     <t>Os Infiltrados</t>
@@ -160,319 +166,331 @@
     <t>Intocáveis</t>
   </si>
   <si>
-    <t>Whiplash: Em Busca da Perfeição</t>
-  </si>
-  <si>
     <t>O Grande Truque</t>
   </si>
   <si>
-    <t>Túmulo dos Vagalumes</t>
+    <t>Casablanca</t>
   </si>
   <si>
     <t>Era uma Vez no Oeste</t>
   </si>
   <si>
+    <t>Janela Indiscreta</t>
+  </si>
+  <si>
+    <t>Cinema Paradiso</t>
+  </si>
+  <si>
+    <t>Alien - O 8º Passageiro</t>
+  </si>
+  <si>
+    <t>Apocalypse Now</t>
+  </si>
+  <si>
+    <t>Amnésia</t>
+  </si>
+  <si>
+    <t>Os Caçadores da Arca Perdida</t>
+  </si>
+  <si>
+    <t>O Grande Ditador</t>
+  </si>
+  <si>
+    <t>A Vida dos Outros</t>
+  </si>
+  <si>
+    <t>Django Livre</t>
+  </si>
+  <si>
+    <t>Glória Feita de Sangue</t>
+  </si>
+  <si>
+    <t>Crepúsculo dos Deuses</t>
+  </si>
+  <si>
+    <t>WALL·E</t>
+  </si>
+  <si>
+    <t>O Iluminado</t>
+  </si>
+  <si>
+    <t>Vingadores: Guerra Infinita</t>
+  </si>
+  <si>
+    <t>Testemunha de Acusação</t>
+  </si>
+  <si>
+    <t>Dr. Fantástico</t>
+  </si>
+  <si>
+    <t>Homem-Aranha no Aranhaverso</t>
+  </si>
+  <si>
+    <t>Coringa</t>
+  </si>
+  <si>
+    <t>Princesa Mononoke</t>
+  </si>
+  <si>
+    <t>Oldboy</t>
+  </si>
+  <si>
+    <t>Your Name.</t>
+  </si>
+  <si>
+    <t>Era uma Vez na América</t>
+  </si>
+  <si>
+    <t>Batman: O Cavaleiro das Trevas Ressurge</t>
+  </si>
+  <si>
+    <t>Aliens, o Resgate</t>
+  </si>
+  <si>
+    <t>Viva: A Vida é uma Festa</t>
+  </si>
+  <si>
     <t>Hamilton</t>
   </si>
   <si>
-    <t>Casablanca</t>
-  </si>
-  <si>
-    <t>Cinema Paradiso</t>
-  </si>
-  <si>
-    <t>Janela Indiscreta</t>
-  </si>
-  <si>
-    <t>Alien - O 8º Passageiro</t>
-  </si>
-  <si>
-    <t>Apocalypse Now</t>
-  </si>
-  <si>
-    <t>Amnésia</t>
-  </si>
-  <si>
-    <t>O Grande Ditador</t>
-  </si>
-  <si>
-    <t>Os Caçadores da Arca Perdida</t>
-  </si>
-  <si>
-    <t>Django Livre</t>
-  </si>
-  <si>
-    <t>A Vida dos Outros</t>
-  </si>
-  <si>
-    <t>Coringa</t>
-  </si>
-  <si>
-    <t>Glória Feita de Sangue</t>
-  </si>
-  <si>
-    <t>WALL·E</t>
-  </si>
-  <si>
-    <t>O Iluminado</t>
-  </si>
-  <si>
-    <t>Vingadores: Guerra Infinita</t>
-  </si>
-  <si>
-    <t>Crepúsculo dos Deuses</t>
-  </si>
-  <si>
-    <t>Testemunha de Acusação</t>
-  </si>
-  <si>
-    <t>Oldboy</t>
-  </si>
-  <si>
-    <t>Homem-Aranha no Aranhaverso</t>
-  </si>
-  <si>
-    <t>Princesa Mononoke</t>
-  </si>
-  <si>
-    <t>Dr. Fantástico</t>
-  </si>
-  <si>
-    <t>Batman: O Cavaleiro das Trevas Ressurge</t>
-  </si>
-  <si>
-    <t>Era uma Vez na América</t>
-  </si>
-  <si>
-    <t>Aliens, o Resgate</t>
-  </si>
-  <si>
-    <t>Your Name.</t>
+    <t>O Barco: Inferno no Mar</t>
+  </si>
+  <si>
+    <t>Cafarnaum</t>
   </si>
   <si>
     <t>Vingadores: Ultimato</t>
   </si>
   <si>
-    <t>Viva: A Vida é uma Festa</t>
+    <t>Céu E Inferno</t>
   </si>
   <si>
     <t>Beleza Americana</t>
   </si>
   <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>3 Idiotas</t>
+  </si>
+  <si>
+    <t>Amadeus</t>
+  </si>
+  <si>
     <t>Coração Valente</t>
   </si>
   <si>
-    <t>O Barco: Inferno no Mar</t>
-  </si>
-  <si>
-    <t>3 Idiotas</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>Céu E Inferno</t>
-  </si>
-  <si>
-    <t>Cafarnaum</t>
-  </si>
-  <si>
-    <t>Amadeus</t>
-  </si>
-  <si>
     <t>Bastardos Inglórios</t>
   </si>
   <si>
+    <t>Gênio Indomável</t>
+  </si>
+  <si>
     <t>Star Wars, Episódio VI: O Retorno do Jedi</t>
   </si>
   <si>
+    <t>2001: Uma Odisséia no Espaço</t>
+  </si>
+  <si>
+    <t>Cães de Aluguel</t>
+  </si>
+  <si>
+    <t>M, o Vampiro de Dusseldorf</t>
+  </si>
+  <si>
     <t>Como Estrelas na Terra</t>
   </si>
   <si>
-    <t>Gênio Indomável</t>
-  </si>
-  <si>
-    <t>Cães de Aluguel</t>
-  </si>
-  <si>
-    <t>2001: Uma Odisséia no Espaço</t>
+    <t>A Canção da Estrada</t>
+  </si>
+  <si>
+    <t>Um Corpo que Cai</t>
+  </si>
+  <si>
+    <t>Cidadão Kane</t>
+  </si>
+  <si>
+    <t>Vá e Veja</t>
+  </si>
+  <si>
+    <t>A Caça</t>
   </si>
   <si>
     <t>Réquiem para um Sonho</t>
   </si>
   <si>
-    <t>Um Corpo que Cai</t>
-  </si>
-  <si>
-    <t>M, o Vampiro de Dusseldorf</t>
+    <t>Cantando na Chuva</t>
+  </si>
+  <si>
+    <t>Intriga Internacional</t>
   </si>
   <si>
     <t>Brilho Eterno de uma Mente sem Lembranças</t>
   </si>
   <si>
-    <t>A Caça</t>
-  </si>
-  <si>
-    <t>Cidadão Kane</t>
+    <t>Viver</t>
+  </si>
+  <si>
+    <t>Ladrões de Bicicletas</t>
+  </si>
+  <si>
+    <t>Lawrence da Arábia</t>
+  </si>
+  <si>
+    <t>O Garoto</t>
+  </si>
+  <si>
+    <t>Nascido para Matar</t>
   </si>
   <si>
     <t>Dangal</t>
   </si>
   <si>
-    <t>Nascido para Matar</t>
+    <t>Meu Pai</t>
+  </si>
+  <si>
+    <t>Laranja Mecânica</t>
+  </si>
+  <si>
+    <t>Metrópolis</t>
+  </si>
+  <si>
+    <t>Taxi Driver: Motorista de Táxi</t>
+  </si>
+  <si>
+    <t>Se Meu Apartamento Falasse</t>
+  </si>
+  <si>
+    <t>Pacto de Sangue</t>
+  </si>
+  <si>
+    <t>Incêndios</t>
+  </si>
+  <si>
+    <t>Golpe de Mestre</t>
+  </si>
+  <si>
+    <t>A Separação</t>
   </si>
   <si>
     <t>1917</t>
   </si>
   <si>
-    <t>Ladrões de Bicicletas</t>
-  </si>
-  <si>
-    <t>Cantando na Chuva</t>
-  </si>
-  <si>
-    <t>O Garoto</t>
-  </si>
-  <si>
-    <t>Intriga Internacional</t>
-  </si>
-  <si>
-    <t>Laranja Mecânica</t>
+    <t>Scarface</t>
+  </si>
+  <si>
+    <t>O Fabuloso Destino de Amélie Poulain</t>
   </si>
   <si>
     <t>Snatch: Porcos e Diamantes</t>
   </si>
   <si>
-    <t>Scarface</t>
-  </si>
-  <si>
-    <t>Viver</t>
-  </si>
-  <si>
-    <t>Taxi Driver: Motorista de Táxi</t>
-  </si>
-  <si>
-    <t>Lawrence da Arábia</t>
-  </si>
-  <si>
     <t>Toy Story 3</t>
   </si>
   <si>
-    <t>O Fabuloso Destino de Amélie Poulain</t>
-  </si>
-  <si>
-    <t>Vá e Veja</t>
-  </si>
-  <si>
-    <t>Golpe de Mestre</t>
-  </si>
-  <si>
-    <t>A Separação</t>
-  </si>
-  <si>
-    <t>Metrópolis</t>
-  </si>
-  <si>
-    <t>Incêndios</t>
+    <t>O Sol é para Todos</t>
   </si>
   <si>
     <t>Por uns Dólares a Mais</t>
   </si>
   <si>
-    <t>Se Meu Apartamento Falasse</t>
-  </si>
-  <si>
-    <t>Pacto de Sangue</t>
-  </si>
-  <si>
-    <t>O Sol é para Todos</t>
-  </si>
-  <si>
     <t>Up: Altas Aventuras</t>
   </si>
   <si>
     <t>Indiana Jones e a Última Cruzada</t>
   </si>
   <si>
+    <t>Los Angeles: Cidade Proibida</t>
+  </si>
+  <si>
     <t>Fogo Contra Fogo</t>
   </si>
   <si>
-    <t>Los Angeles: Cidade Proibida</t>
+    <t>Rashomon</t>
+  </si>
+  <si>
+    <t>Yojimbo, o Guarda-Costas</t>
+  </si>
+  <si>
+    <t>Ran</t>
   </si>
   <si>
     <t>Duro de Matar</t>
   </si>
   <si>
+    <t>Green Book: O Guia</t>
+  </si>
+  <si>
+    <t>A Queda! As Últimas Horas de Hitler</t>
+  </si>
+  <si>
     <t>Monty Python em Busca do Cálice Sagrado</t>
   </si>
   <si>
-    <t>Green Book: O Guia</t>
-  </si>
-  <si>
-    <t>Yojimbo, o Guarda-Costas</t>
-  </si>
-  <si>
-    <t>Rashomon</t>
+    <t>A Malvada</t>
+  </si>
+  <si>
+    <t>Quanto Mais Quente Melhor</t>
   </si>
   <si>
     <t>Batman Begins</t>
   </si>
   <si>
-    <t>A Queda! As Últimas Horas de Hitler</t>
+    <t>Os Imperdoáveis</t>
   </si>
   <si>
     <t>Filhos do Paraíso</t>
   </si>
   <si>
-    <t>Os Imperdoáveis</t>
-  </si>
-  <si>
-    <t>Quanto Mais Quente Melhor</t>
-  </si>
-  <si>
-    <t>Ran</t>
-  </si>
-  <si>
     <t>O Castelo Animado</t>
   </si>
   <si>
-    <t>A Malvada</t>
+    <t>O Lobo de Wall Street</t>
+  </si>
+  <si>
+    <t>Fugindo do Inferno</t>
+  </si>
+  <si>
+    <t>Julgamento em Nuremberg</t>
+  </si>
+  <si>
+    <t>Cassino</t>
+  </si>
+  <si>
+    <t>O Tesouro da Sierra Madre</t>
+  </si>
+  <si>
+    <t>Sangue Negro</t>
+  </si>
+  <si>
+    <t>O Labirinto do Fauno</t>
   </si>
   <si>
     <t>Uma Mente Brilhante</t>
   </si>
   <si>
-    <t>Cassino</t>
-  </si>
-  <si>
-    <t>Fugindo do Inferno</t>
-  </si>
-  <si>
-    <t>O Lobo de Wall Street</t>
-  </si>
-  <si>
-    <t>O Labirinto do Fauno</t>
-  </si>
-  <si>
     <t>O Segredo dos Seus Olhos</t>
   </si>
   <si>
+    <t>Touro Indomável</t>
+  </si>
+  <si>
+    <t>Meu Amigo Totoro</t>
+  </si>
+  <si>
+    <t>Chinatown</t>
+  </si>
+  <si>
     <t>Jogos, Trapaças e Dois Canos Fumegantes</t>
   </si>
   <si>
-    <t>Sangue Negro</t>
-  </si>
-  <si>
-    <t>Meu Amigo Totoro</t>
-  </si>
-  <si>
-    <t>Touro Indomável</t>
-  </si>
-  <si>
-    <t>Julgamento em Nuremberg</t>
-  </si>
-  <si>
-    <t>O Tesouro da Sierra Madre</t>
+    <t>Em Busca do Ouro</t>
+  </si>
+  <si>
+    <t>Ilha do Medo</t>
+  </si>
+  <si>
+    <t>Onde os Fracos Não Têm Vez</t>
   </si>
   <si>
     <t>Disque M para Matar</t>
@@ -481,298 +499,280 @@
     <t>Três Anúncios para um Crime</t>
   </si>
   <si>
-    <t>Em Busca do Ouro</t>
-  </si>
-  <si>
-    <t>Chinatown</t>
-  </si>
-  <si>
-    <t>Ilha do Medo</t>
-  </si>
-  <si>
-    <t>Anand</t>
+    <t>O Sétimo Selo</t>
+  </si>
+  <si>
+    <t>O Homem Elefante</t>
+  </si>
+  <si>
+    <t>O Enigma de Outro Mundo</t>
+  </si>
+  <si>
+    <t>O Sexto Sentido</t>
+  </si>
+  <si>
+    <t>Klaus</t>
+  </si>
+  <si>
+    <t>O 3º Homem</t>
+  </si>
+  <si>
+    <t>V de Vingança</t>
+  </si>
+  <si>
+    <t>Divertida Mente</t>
+  </si>
+  <si>
+    <t>Morangos Silvestres</t>
+  </si>
+  <si>
+    <t>Memórias de um Assassino</t>
+  </si>
+  <si>
+    <t>O Show de Truman: O Show da Vida</t>
+  </si>
+  <si>
+    <t>Jurassic Park: O Parque dos Dinossauros</t>
+  </si>
+  <si>
+    <t>Blade Runner: O Caçador de Androides</t>
+  </si>
+  <si>
+    <t>Trainspotting: Sem Limites</t>
+  </si>
+  <si>
+    <t>A Ponte do Rio Kwai</t>
+  </si>
+  <si>
+    <t>Guerreiro</t>
+  </si>
+  <si>
+    <t>Fargo: Uma Comédia de Erros</t>
+  </si>
+  <si>
+    <t>Procurando Nemo</t>
+  </si>
+  <si>
+    <t>...E o Vento Levou</t>
   </si>
   <si>
     <t>Meu Pai e Meu Filho</t>
   </si>
   <si>
-    <t>Onde os Fracos Não Têm Vez</t>
-  </si>
-  <si>
-    <t>V de Vingança</t>
-  </si>
-  <si>
-    <t>O Sétimo Selo</t>
-  </si>
-  <si>
-    <t>Divertida Mente</t>
-  </si>
-  <si>
-    <t>Guerreiro</t>
-  </si>
-  <si>
-    <t>O Homem Elefante</t>
-  </si>
-  <si>
-    <t>O Enigma de Outro Mundo</t>
-  </si>
-  <si>
-    <t>O Sexto Sentido</t>
-  </si>
-  <si>
-    <t>Trainspotting: Sem Limites</t>
-  </si>
-  <si>
-    <t>Jurassic Park: O Parque dos Dinossauros</t>
-  </si>
-  <si>
-    <t>O Show de Truman: O Show da Vida</t>
-  </si>
-  <si>
-    <t>...E o Vento Levou</t>
-  </si>
-  <si>
-    <t>Procurando Nemo</t>
-  </si>
-  <si>
-    <t>Morangos Silvestres</t>
-  </si>
-  <si>
-    <t>Blade Runner: O Caçador de Androides</t>
+    <t>Kill Bill: Volume 1</t>
+  </si>
+  <si>
+    <t>Era uma Vez em Tóquio</t>
+  </si>
+  <si>
+    <t>Sindicato de Ladrões</t>
   </si>
   <si>
     <t>Stalker</t>
   </si>
   <si>
-    <t>Kill Bill: Volume 1</t>
-  </si>
-  <si>
-    <t>A Ponte do Rio Kwai</t>
-  </si>
-  <si>
-    <t>Memórias de um Assassino</t>
-  </si>
-  <si>
-    <t>Fargo: Uma Comédia de Erros</t>
+    <t>Relatos Selvagens</t>
+  </si>
+  <si>
+    <t>A General</t>
+  </si>
+  <si>
+    <t>Bancando o Águia</t>
+  </si>
+  <si>
+    <t>O Franco Atirador</t>
+  </si>
+  <si>
+    <t>Gran Torino</t>
+  </si>
+  <si>
+    <t>O Grande Hotel Budapeste</t>
+  </si>
+  <si>
+    <t>Quando Duas Mulheres Pecam</t>
+  </si>
+  <si>
+    <t>Antes do Amanhecer</t>
+  </si>
+  <si>
+    <t>Mary e Max: Uma Amizade Diferente</t>
   </si>
   <si>
     <t>O Quarto de Jack</t>
   </si>
   <si>
-    <t>Klaus</t>
-  </si>
-  <si>
-    <t>Gran Torino</t>
-  </si>
-  <si>
-    <t>O 3º Homem</t>
-  </si>
-  <si>
-    <t>Era uma Vez em Tóquio</t>
-  </si>
-  <si>
-    <t>Sindicato de Ladrões</t>
-  </si>
-  <si>
-    <t>Relatos Selvagens</t>
+    <t>A Mulher Faz o Homem</t>
+  </si>
+  <si>
+    <t>Em Nome do Pai</t>
+  </si>
+  <si>
+    <t>Prenda-me se for Capaz</t>
+  </si>
+  <si>
+    <t>Garota Exemplar</t>
+  </si>
+  <si>
+    <t>Até o Último Homem</t>
+  </si>
+  <si>
+    <t>Ser ou Não Ser</t>
+  </si>
+  <si>
+    <t>Barry Lyndon</t>
+  </si>
+  <si>
+    <t>Assassinato às Cegas</t>
+  </si>
+  <si>
+    <t>O Martírio de Joana D'Arc</t>
+  </si>
+  <si>
+    <t>Ford vs Ferrari</t>
+  </si>
+  <si>
+    <t>O Grande Lebowski</t>
+  </si>
+  <si>
+    <t>12 Anos de Escravidão</t>
+  </si>
+  <si>
+    <t>Como Treinar o Seu Dragão</t>
+  </si>
+  <si>
+    <t>Mad Max: Estrada da Fúria</t>
+  </si>
+  <si>
+    <t>Sociedade dos Poetas Mortos</t>
+  </si>
+  <si>
+    <t>Ben-Hur</t>
+  </si>
+  <si>
+    <t>Menina de Ouro</t>
+  </si>
+  <si>
+    <t>O Salário do Medo</t>
+  </si>
+  <si>
+    <t>Harry Potter e as Relíquias da Morte - Parte 2</t>
   </si>
   <si>
     <t>Sonata de Outono</t>
   </si>
   <si>
-    <t>O Franco Atirador</t>
-  </si>
-  <si>
-    <t>Em Nome do Pai</t>
-  </si>
-  <si>
-    <t>Mary e Max: Uma Amizade Diferente</t>
-  </si>
-  <si>
-    <t>Garota Exemplar</t>
-  </si>
-  <si>
-    <t>O Grande Hotel Budapeste</t>
-  </si>
-  <si>
-    <t>Até o Último Homem</t>
-  </si>
-  <si>
-    <t>Antes do Amanhecer</t>
-  </si>
-  <si>
-    <t>Prenda-me se for Capaz</t>
-  </si>
-  <si>
-    <t>Assassinato às Cegas</t>
-  </si>
-  <si>
-    <t>Quando Duas Mulheres Pecam</t>
-  </si>
-  <si>
-    <t>O Grande Lebowski</t>
-  </si>
-  <si>
-    <t>Bancando o Águia</t>
-  </si>
-  <si>
-    <t>Ser ou Não Ser</t>
-  </si>
-  <si>
-    <t>A General</t>
-  </si>
-  <si>
-    <t>Como Treinar o Seu Dragão</t>
+    <t>Rede de Intrigas</t>
+  </si>
+  <si>
+    <t>Conta Comigo</t>
+  </si>
+  <si>
+    <t>A Criada</t>
+  </si>
+  <si>
+    <t>Rebeldia Indomável</t>
+  </si>
+  <si>
+    <t>Os Incompreendidos</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Sempre ao Seu Lado</t>
+  </si>
+  <si>
+    <t>O Ódio</t>
   </si>
   <si>
     <t>O Bandido</t>
   </si>
   <si>
-    <t>Ford vs Ferrari</t>
-  </si>
-  <si>
-    <t>12 Anos de Escravidão</t>
-  </si>
-  <si>
-    <t>A Mulher Faz o Homem</t>
-  </si>
-  <si>
-    <t>Vida Cigana</t>
-  </si>
-  <si>
-    <t>Barry Lyndon</t>
-  </si>
-  <si>
-    <t>Mad Max: Estrada da Fúria</t>
-  </si>
-  <si>
-    <t>Menina de Ouro</t>
-  </si>
-  <si>
-    <t>Rede de Intrigas</t>
-  </si>
-  <si>
-    <t>Conta Comigo</t>
-  </si>
-  <si>
-    <t>Sociedade dos Poetas Mortos</t>
-  </si>
-  <si>
-    <t>Rebeldia Indomável</t>
-  </si>
-  <si>
-    <t>Vikram Vedha</t>
-  </si>
-  <si>
-    <t>Ben-Hur</t>
-  </si>
-  <si>
-    <t>Harry Potter e as Relíquias da Morte - Parte 2</t>
-  </si>
-  <si>
-    <t>Sempre ao Seu Lado</t>
-  </si>
-  <si>
     <t>Platoon</t>
   </si>
   <si>
+    <t>Spotlight: Segredos Revelados</t>
+  </si>
+  <si>
+    <t>Gangues de Wasseypur</t>
+  </si>
+  <si>
+    <t>A Vida de Brian</t>
+  </si>
+  <si>
+    <t>Hotel Ruanda</t>
+  </si>
+  <si>
+    <t>Monstros S.A.</t>
+  </si>
+  <si>
+    <t>Rebecca, a Mulher Inesquecível</t>
+  </si>
+  <si>
+    <t>A Voz do Silêncio</t>
+  </si>
+  <si>
+    <t>Rush: No Limite da Emoção</t>
+  </si>
+  <si>
     <t>Na Natureza Selvagem</t>
   </si>
   <si>
-    <t>Logan</t>
-  </si>
-  <si>
-    <t>A Criada</t>
-  </si>
-  <si>
-    <t>O Salário do Medo</t>
-  </si>
-  <si>
-    <t>Rush: No Limite da Emoção</t>
-  </si>
-  <si>
-    <t>A Vida de Brian</t>
-  </si>
-  <si>
-    <t>Os Incompreendidos</t>
-  </si>
-  <si>
-    <t>Spotlight: Segredos Revelados</t>
-  </si>
-  <si>
-    <t>O Martírio de Joana D'Arc</t>
-  </si>
-  <si>
-    <t>Hotel Ruanda</t>
-  </si>
-  <si>
     <t>Andrei Rublev</t>
   </si>
   <si>
-    <t>O Ódio</t>
-  </si>
-  <si>
     <t>Amores Brutos</t>
   </si>
   <si>
+    <t>Amor à Flor da Pele</t>
+  </si>
+  <si>
     <t>Rocky: Um Lutador</t>
   </si>
   <si>
+    <t>Aconteceu Naquela Noite</t>
+  </si>
+  <si>
     <t>Nausicaä do Vale do Vento</t>
   </si>
   <si>
-    <t>Gangues de Wasseypur</t>
-  </si>
-  <si>
-    <t>Monstros S.A.</t>
+    <t>Neon Genesis Evangelion: O Fim do Evangelho</t>
+  </si>
+  <si>
+    <t>A Batalha de Argel</t>
+  </si>
+  <si>
+    <t>Antes do Pôr-do-Sol</t>
+  </si>
+  <si>
+    <t>Fanny e Alexander</t>
+  </si>
+  <si>
+    <t>A Fraternidade é Vermelha</t>
+  </si>
+  <si>
+    <t>A Princesa Prometida</t>
   </si>
   <si>
     <t>Rififi</t>
   </si>
   <si>
-    <t>Rebecca, a Mulher Inesquecível</t>
-  </si>
-  <si>
-    <t>Pinte de Açafrão</t>
-  </si>
-  <si>
-    <t>Antes do Pôr-do-Sol</t>
-  </si>
-  <si>
-    <t>Amor à Flor da Pele</t>
-  </si>
-  <si>
-    <t>Retrato de uma Jovem em Chamas</t>
-  </si>
-  <si>
     <t>Paris, Texas</t>
   </si>
   <si>
-    <t>Aconteceu Naquela Noite</t>
-  </si>
-  <si>
-    <t>A Chantagem</t>
-  </si>
-  <si>
-    <t>Um Contratempo</t>
-  </si>
-  <si>
-    <t>Histórias Cruzadas</t>
-  </si>
-  <si>
-    <t>A Princesa Prometida</t>
-  </si>
-  <si>
-    <t>A Batalha de Argel</t>
-  </si>
-  <si>
-    <t>Tangerinas</t>
-  </si>
-  <si>
-    <t>O Exterminador do Futuro</t>
-  </si>
-  <si>
-    <t>A Voz do Silêncio</t>
+    <t>Demon Slayer - Mugen Train: O Filme</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>Noites de Cabíria</t>
+  </si>
+  <si>
+    <t>Ratsasan</t>
+  </si>
+  <si>
+    <t>Milagre na Cela 7</t>
   </si>
   <si>
     <t>1994</t>
@@ -826,12 +826,12 @@
     <t>1995</t>
   </si>
   <si>
+    <t>1991</t>
+  </si>
+  <si>
     <t>1997</t>
   </si>
   <si>
-    <t>1991</t>
-  </si>
-  <si>
     <t>1946</t>
   </si>
   <si>
@@ -853,126 +853,129 @@
     <t>1985</t>
   </si>
   <si>
+    <t>1960</t>
+  </si>
+  <si>
     <t>1936</t>
   </si>
   <si>
-    <t>1960</t>
+    <t>1931</t>
+  </si>
+  <si>
+    <t>1988</t>
   </si>
   <si>
     <t>2000</t>
   </si>
   <si>
-    <t>1931</t>
-  </si>
-  <si>
     <t>2006</t>
   </si>
   <si>
     <t>2011</t>
   </si>
   <si>
-    <t>1988</t>
+    <t>1942</t>
   </si>
   <si>
     <t>1968</t>
   </si>
   <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1940</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
     <t>2020</t>
   </si>
   <si>
-    <t>1942</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>1940</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>1950</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
+    <t>1963</t>
   </si>
   <si>
     <t>2009</t>
   </si>
   <si>
-    <t>1963</t>
-  </si>
-  <si>
     <t>1983</t>
   </si>
   <si>
+    <t>1992</t>
+  </si>
+  <si>
     <t>2007</t>
   </si>
   <si>
-    <t>1992</t>
+    <t>1955</t>
   </si>
   <si>
     <t>1958</t>
   </si>
   <si>
+    <t>1941</t>
+  </si>
+  <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
     <t>2004</t>
   </si>
   <si>
-    <t>1941</t>
+    <t>1948</t>
+  </si>
+  <si>
+    <t>1921</t>
   </si>
   <si>
     <t>1987</t>
   </si>
   <si>
-    <t>1948</t>
-  </si>
-  <si>
-    <t>1952</t>
-  </si>
-  <si>
-    <t>1921</t>
-  </si>
-  <si>
-    <t>1959</t>
-  </si>
-  <si>
     <t>1971</t>
   </si>
   <si>
+    <t>1927</t>
+  </si>
+  <si>
     <t>1976</t>
   </si>
   <si>
+    <t>1944</t>
+  </si>
+  <si>
     <t>1973</t>
   </si>
   <si>
-    <t>1927</t>
-  </si>
-  <si>
     <t>1965</t>
   </si>
   <si>
-    <t>1944</t>
-  </si>
-  <si>
     <t>1989</t>
   </si>
   <si>
@@ -988,42 +991,39 @@
     <t>1925</t>
   </si>
   <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>1949</t>
+  </si>
+  <si>
     <t>2015</t>
   </si>
   <si>
-    <t>1982</t>
-  </si>
-  <si>
     <t>1996</t>
   </si>
   <si>
     <t>1939</t>
   </si>
   <si>
-    <t>1949</t>
-  </si>
-  <si>
     <t>1953</t>
   </si>
   <si>
+    <t>1926</t>
+  </si>
+  <si>
+    <t>1924</t>
+  </si>
+  <si>
     <t>1978</t>
   </si>
   <si>
-    <t>1924</t>
-  </si>
-  <si>
-    <t>1926</t>
+    <t>1928</t>
   </si>
   <si>
     <t>1967</t>
   </si>
   <si>
-    <t>1928</t>
-  </si>
-  <si>
-    <t>1955</t>
-  </si>
-  <si>
     <t>1934</t>
   </si>
   <si>
@@ -1123,15 +1123,15 @@
     <t>David Fincher (dir.), Morgan Freeman, Brad Pitt</t>
   </si>
   <si>
+    <t>Jonathan Demme (dir.), Jodie Foster, Anthony Hopkins</t>
+  </si>
+  <si>
+    <t>Fernando Meirelles (dir.), Alexandre Rodrigues, Leandro Firmino</t>
+  </si>
+  <si>
     <t>Roberto Benigni (dir.), Roberto Benigni, Nicoletta Braschi</t>
   </si>
   <si>
-    <t>Fernando Meirelles (dir.), Alexandre Rodrigues, Leandro Firmino</t>
-  </si>
-  <si>
-    <t>Jonathan Demme (dir.), Jodie Foster, Anthony Hopkins</t>
-  </si>
-  <si>
     <t>Frank Capra (dir.), James Stewart, Donna Reed</t>
   </si>
   <si>
@@ -1144,49 +1144,55 @@
     <t>Hayao Miyazaki (dir.), Daveigh Chase, Suzanne Pleshette</t>
   </si>
   <si>
+    <t>Christopher Nolan (dir.), Matthew McConaughey, Anne Hathaway</t>
+  </si>
+  <si>
     <t>Frank Darabont (dir.), Tom Hanks, Michael Clarke Duncan</t>
   </si>
   <si>
-    <t>Christopher Nolan (dir.), Matthew McConaughey, Anne Hathaway</t>
-  </si>
-  <si>
-    <t>Bong Joon Ho (dir.), Song Kang-Ho, Sun-kyun Lee</t>
+    <t>Bong Joon Ho (dir.), Kang-ho Song, Sun-kyun Lee</t>
   </si>
   <si>
     <t>Luc Besson (dir.), Jean Reno, Gary Oldman</t>
   </si>
   <si>
+    <t>Masaki Kobayashi (dir.), Tatsuya Nakadai, Akira Ishihama</t>
+  </si>
+  <si>
+    <t>Roman Polanski (dir.), Adrien Brody, Thomas Kretschmann</t>
+  </si>
+  <si>
     <t>Bryan Singer (dir.), Kevin Spacey, Gabriel Byrne</t>
   </si>
   <si>
-    <t>Masaki Kobayashi (dir.), Tatsuya Nakadai, Akira Ishihama</t>
+    <t>James Cameron (dir.), Arnold Schwarzenegger, Linda Hamilton</t>
+  </si>
+  <si>
+    <t>Robert Zemeckis (dir.), Michael J. Fox, Christopher Lloyd</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock (dir.), Anthony Perkins, Janet Leigh</t>
+  </si>
+  <si>
+    <t>Charles Chaplin (dir.), Charles Chaplin, Paulette Goddard</t>
   </si>
   <si>
     <t>Roger Allers (dir.), Matthew Broderick, Jeremy Irons</t>
   </si>
   <si>
-    <t>Roman Polanski (dir.), Adrien Brody, Thomas Kretschmann</t>
-  </si>
-  <si>
-    <t>Robert Zemeckis (dir.), Michael J. Fox, Christopher Lloyd</t>
-  </si>
-  <si>
-    <t>James Cameron (dir.), Arnold Schwarzenegger, Linda Hamilton</t>
-  </si>
-  <si>
     <t>Tony Kaye (dir.), Edward Norton, Edward Furlong</t>
   </si>
   <si>
-    <t>Charles Chaplin (dir.), Charles Chaplin, Paulette Goddard</t>
-  </si>
-  <si>
-    <t>Alfred Hitchcock (dir.), Anthony Perkins, Janet Leigh</t>
+    <t>Charles Chaplin (dir.), Charles Chaplin, Virginia Cherrill</t>
+  </si>
+  <si>
+    <t>Isao Takahata (dir.), Tsutomu Tatsumi, Ayano Shiraishi</t>
   </si>
   <si>
     <t>Ridley Scott (dir.), Russell Crowe, Joaquin Phoenix</t>
   </si>
   <si>
-    <t>Charles Chaplin (dir.), Charles Chaplin, Virginia Cherrill</t>
+    <t>Damien Chazelle (dir.), Miles Teller, J.K. Simmons</t>
   </si>
   <si>
     <t>Martin Scorsese (dir.), Leonardo DiCaprio, Matt Damon</t>
@@ -1195,316 +1201,328 @@
     <t>Olivier Nakache (dir.), François Cluzet, Omar Sy</t>
   </si>
   <si>
-    <t>Damien Chazelle (dir.), Miles Teller, J.K. Simmons</t>
-  </si>
-  <si>
     <t>Christopher Nolan (dir.), Christian Bale, Hugh Jackman</t>
   </si>
   <si>
-    <t>Isao Takahata (dir.), Tsutomu Tatsumi, Ayano Shiraishi</t>
+    <t>Michael Curtiz (dir.), Humphrey Bogart, Ingrid Bergman</t>
   </si>
   <si>
     <t>Sergio Leone (dir.), Henry Fonda, Charles Bronson</t>
   </si>
   <si>
+    <t>Alfred Hitchcock (dir.), James Stewart, Grace Kelly</t>
+  </si>
+  <si>
+    <t>Giuseppe Tornatore (dir.), Philippe Noiret, Enzo Cannavale</t>
+  </si>
+  <si>
+    <t>Ridley Scott (dir.), Sigourney Weaver, Tom Skerritt</t>
+  </si>
+  <si>
+    <t>Francis Ford Coppola (dir.), Martin Sheen, Marlon Brando</t>
+  </si>
+  <si>
+    <t>Christopher Nolan (dir.), Guy Pearce, Carrie-Anne Moss</t>
+  </si>
+  <si>
+    <t>Steven Spielberg (dir.), Harrison Ford, Karen Allen</t>
+  </si>
+  <si>
+    <t>Florian Henckel von Donnersmarck (dir.), Ulrich Mühe, Martina Gedeck</t>
+  </si>
+  <si>
+    <t>Quentin Tarantino (dir.), Jamie Foxx, Christoph Waltz</t>
+  </si>
+  <si>
+    <t>Stanley Kubrick (dir.), Kirk Douglas, Ralph Meeker</t>
+  </si>
+  <si>
+    <t>Billy Wilder (dir.), William Holden, Gloria Swanson</t>
+  </si>
+  <si>
+    <t>Andrew Stanton (dir.), Ben Burtt, Elissa Knight</t>
+  </si>
+  <si>
+    <t>Stanley Kubrick (dir.), Jack Nicholson, Shelley Duvall</t>
+  </si>
+  <si>
+    <t>Anthony Russo (dir.), Robert Downey Jr., Chris Hemsworth</t>
+  </si>
+  <si>
+    <t>Billy Wilder (dir.), Tyrone Power, Marlene Dietrich</t>
+  </si>
+  <si>
+    <t>Stanley Kubrick (dir.), Peter Sellers, George C. Scott</t>
+  </si>
+  <si>
+    <t>Bob Persichetti (dir.), Shameik Moore, Jake Johnson</t>
+  </si>
+  <si>
+    <t>Todd Phillips (dir.), Joaquin Phoenix, Robert De Niro</t>
+  </si>
+  <si>
+    <t>Hayao Miyazaki (dir.), Yôji Matsuda, Yuriko Ishida</t>
+  </si>
+  <si>
+    <t>Park Chan-Wook (dir.), Choi Min-sik, Yoo Ji-Tae</t>
+  </si>
+  <si>
+    <t>Makoto Shinkai (dir.), Ryûnosuke Kamiki, Mone Kamishiraishi</t>
+  </si>
+  <si>
+    <t>Sergio Leone (dir.), Robert De Niro, James Woods</t>
+  </si>
+  <si>
+    <t>Christopher Nolan (dir.), Christian Bale, Tom Hardy</t>
+  </si>
+  <si>
+    <t>James Cameron (dir.), Sigourney Weaver, Michael Biehn</t>
+  </si>
+  <si>
+    <t>Lee Unkrich (dir.), Anthony Gonzalez, Gael García Bernal</t>
+  </si>
+  <si>
     <t>Thomas Kail (dir.), Lin-Manuel Miranda, Phillipa Soo</t>
   </si>
   <si>
-    <t>Michael Curtiz (dir.), Humphrey Bogart, Ingrid Bergman</t>
-  </si>
-  <si>
-    <t>Giuseppe Tornatore (dir.), Philippe Noiret, Enzo Cannavale</t>
-  </si>
-  <si>
-    <t>Alfred Hitchcock (dir.), James Stewart, Grace Kelly</t>
-  </si>
-  <si>
-    <t>Ridley Scott (dir.), Sigourney Weaver, Tom Skerritt</t>
-  </si>
-  <si>
-    <t>Francis Ford Coppola (dir.), Martin Sheen, Marlon Brando</t>
-  </si>
-  <si>
-    <t>Christopher Nolan (dir.), Guy Pearce, Carrie-Anne Moss</t>
-  </si>
-  <si>
-    <t>Steven Spielberg (dir.), Harrison Ford, Karen Allen</t>
-  </si>
-  <si>
-    <t>Quentin Tarantino (dir.), Jamie Foxx, Christoph Waltz</t>
-  </si>
-  <si>
-    <t>Florian Henckel von Donnersmarck (dir.), Ulrich Mühe, Martina Gedeck</t>
-  </si>
-  <si>
-    <t>Todd Phillips (dir.), Joaquin Phoenix, Robert De Niro</t>
-  </si>
-  <si>
-    <t>Stanley Kubrick (dir.), Kirk Douglas, Ralph Meeker</t>
-  </si>
-  <si>
-    <t>Andrew Stanton (dir.), Ben Burtt, Elissa Knight</t>
-  </si>
-  <si>
-    <t>Stanley Kubrick (dir.), Jack Nicholson, Shelley Duvall</t>
-  </si>
-  <si>
-    <t>Anthony Russo (dir.), Robert Downey Jr., Chris Hemsworth</t>
-  </si>
-  <si>
-    <t>Billy Wilder (dir.), William Holden, Gloria Swanson</t>
-  </si>
-  <si>
-    <t>Billy Wilder (dir.), Tyrone Power, Marlene Dietrich</t>
-  </si>
-  <si>
-    <t>Chan-wook Park (dir.), Choi Min-sik, Yoo Ji-Tae</t>
-  </si>
-  <si>
-    <t>Bob Persichetti (dir.), Shameik Moore, Jake Johnson</t>
-  </si>
-  <si>
-    <t>Hayao Miyazaki (dir.), Yôji Matsuda, Yuriko Ishida</t>
-  </si>
-  <si>
-    <t>Stanley Kubrick (dir.), Peter Sellers, George C. Scott</t>
-  </si>
-  <si>
-    <t>Christopher Nolan (dir.), Christian Bale, Tom Hardy</t>
-  </si>
-  <si>
-    <t>Sergio Leone (dir.), Robert De Niro, James Woods</t>
-  </si>
-  <si>
-    <t>James Cameron (dir.), Sigourney Weaver, Michael Biehn</t>
-  </si>
-  <si>
-    <t>Makoto Shinkai (dir.), Ryûnosuke Kamiki, Mone Kamishiraishi</t>
+    <t>Wolfgang Petersen (dir.), Jürgen Prochnow, Herbert Grönemeyer</t>
+  </si>
+  <si>
+    <t>Nadine Labaki (dir.), Zain Al Rafeea, Yordanos Shiferaw</t>
   </si>
   <si>
     <t>Anthony Russo (dir.), Robert Downey Jr., Chris Evans</t>
   </si>
   <si>
-    <t>Lee Unkrich (dir.), Anthony Gonzalez, Gael García Bernal</t>
+    <t>Akira Kurosawa (dir.), Toshirô Mifune, Yutaka Sada</t>
   </si>
   <si>
     <t>Sam Mendes (dir.), Kevin Spacey, Annette Bening</t>
   </si>
   <si>
+    <t>John Lasseter (dir.), Tom Hanks, Tim Allen</t>
+  </si>
+  <si>
+    <t>Rajkumar Hirani (dir.), Aamir Khan, Madhavan</t>
+  </si>
+  <si>
+    <t>Milos Forman (dir.), F. Murray Abraham, Tom Hulce</t>
+  </si>
+  <si>
     <t>Mel Gibson (dir.), Mel Gibson, Sophie Marceau</t>
   </si>
   <si>
-    <t>Wolfgang Petersen (dir.), Jürgen Prochnow, Herbert Grönemeyer</t>
-  </si>
-  <si>
-    <t>Rajkumar Hirani (dir.), Aamir Khan, Madhavan</t>
-  </si>
-  <si>
-    <t>John Lasseter (dir.), Tom Hanks, Tim Allen</t>
-  </si>
-  <si>
-    <t>Akira Kurosawa (dir.), Toshirô Mifune, Yutaka Sada</t>
-  </si>
-  <si>
-    <t>Nadine Labaki (dir.), Zain Al Rafeea, Yordanos Shiferaw</t>
-  </si>
-  <si>
-    <t>Milos Forman (dir.), F. Murray Abraham, Tom Hulce</t>
-  </si>
-  <si>
     <t>Quentin Tarantino (dir.), Brad Pitt, Diane Kruger</t>
   </si>
   <si>
+    <t>Gus Van Sant (dir.), Robin Williams, Matt Damon</t>
+  </si>
+  <si>
     <t>Richard Marquand (dir.), Mark Hamill, Harrison Ford</t>
   </si>
   <si>
+    <t>Stanley Kubrick (dir.), Keir Dullea, Gary Lockwood</t>
+  </si>
+  <si>
+    <t>Quentin Tarantino (dir.), Harvey Keitel, Tim Roth</t>
+  </si>
+  <si>
+    <t>Fritz Lang (dir.), Peter Lorre, Ellen Widmann</t>
+  </si>
+  <si>
     <t>Aamir Khan (dir.), Darsheel Safary, Aamir Khan</t>
   </si>
   <si>
-    <t>Gus Van Sant (dir.), Robin Williams, Matt Damon</t>
-  </si>
-  <si>
-    <t>Quentin Tarantino (dir.), Harvey Keitel, Tim Roth</t>
-  </si>
-  <si>
-    <t>Stanley Kubrick (dir.), Keir Dullea, Gary Lockwood</t>
+    <t>Satyajit Ray (dir.), Kanu Bannerjee, Karuna Bannerjee</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock (dir.), James Stewart, Kim Novak</t>
+  </si>
+  <si>
+    <t>Orson Welles (dir.), Orson Welles, Joseph Cotten</t>
+  </si>
+  <si>
+    <t>Elem Klimov (dir.), Aleksey Kravchenko, Olga Mironova</t>
+  </si>
+  <si>
+    <t>Thomas Vinterberg (dir.), Mads Mikkelsen, Thomas Bo Larsen</t>
   </si>
   <si>
     <t>Darren Aronofsky (dir.), Ellen Burstyn, Jared Leto</t>
   </si>
   <si>
-    <t>Alfred Hitchcock (dir.), James Stewart, Kim Novak</t>
-  </si>
-  <si>
-    <t>Fritz Lang (dir.), Peter Lorre, Ellen Widmann</t>
+    <t>Stanley Donen (dir.), Gene Kelly, Donald O'Connor</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock (dir.), Cary Grant, Eva Marie Saint</t>
   </si>
   <si>
     <t>Michel Gondry (dir.), Jim Carrey, Kate Winslet</t>
   </si>
   <si>
-    <t>Thomas Vinterberg (dir.), Mads Mikkelsen, Thomas Bo Larsen</t>
-  </si>
-  <si>
-    <t>Orson Welles (dir.), Orson Welles, Joseph Cotten</t>
+    <t>Akira Kurosawa (dir.), Takashi Shimura, Nobuo Kaneko</t>
+  </si>
+  <si>
+    <t>Vittorio De Sica (dir.), Lamberto Maggiorani, Enzo Staiola</t>
+  </si>
+  <si>
+    <t>David Lean (dir.), Peter O'Toole, Alec Guinness</t>
+  </si>
+  <si>
+    <t>Charles Chaplin (dir.), Charles Chaplin, Edna Purviance</t>
+  </si>
+  <si>
+    <t>Stanley Kubrick (dir.), Matthew Modine, R. Lee Ermey</t>
   </si>
   <si>
     <t>Nitesh Tiwari (dir.), Aamir Khan, Sakshi Tanwar</t>
   </si>
   <si>
-    <t>Stanley Kubrick (dir.), Matthew Modine, R. Lee Ermey</t>
+    <t>Florian Zeller (dir.), Anthony Hopkins, Olivia Colman</t>
+  </si>
+  <si>
+    <t>Stanley Kubrick (dir.), Malcolm McDowell, Patrick Magee</t>
+  </si>
+  <si>
+    <t>Fritz Lang (dir.), Brigitte Helm, Alfred Abel</t>
+  </si>
+  <si>
+    <t>Martin Scorsese (dir.), Robert De Niro, Jodie Foster</t>
+  </si>
+  <si>
+    <t>Billy Wilder (dir.), Jack Lemmon, Shirley MacLaine</t>
+  </si>
+  <si>
+    <t>Billy Wilder (dir.), Fred MacMurray, Barbara Stanwyck</t>
+  </si>
+  <si>
+    <t>Denis Villeneuve (dir.), Lubna Azabal, Mélissa Désormeaux-Poulin</t>
+  </si>
+  <si>
+    <t>George Roy Hill (dir.), Paul Newman, Robert Redford</t>
+  </si>
+  <si>
+    <t>Asghar Farhadi (dir.), Payman Maadi, Leila Hatami</t>
   </si>
   <si>
     <t>Sam Mendes (dir.), Dean-Charles Chapman, George MacKay</t>
   </si>
   <si>
-    <t>Vittorio De Sica (dir.), Lamberto Maggiorani, Enzo Staiola</t>
-  </si>
-  <si>
-    <t>Stanley Donen (dir.), Gene Kelly, Donald O'Connor</t>
-  </si>
-  <si>
-    <t>Charles Chaplin (dir.), Charles Chaplin, Edna Purviance</t>
-  </si>
-  <si>
-    <t>Alfred Hitchcock (dir.), Cary Grant, Eva Marie Saint</t>
-  </si>
-  <si>
-    <t>Stanley Kubrick (dir.), Malcolm McDowell, Patrick Magee</t>
+    <t>Brian De Palma (dir.), Al Pacino, Michelle Pfeiffer</t>
+  </si>
+  <si>
+    <t>Jean-Pierre Jeunet (dir.), Audrey Tautou, Mathieu Kassovitz</t>
   </si>
   <si>
     <t>Guy Ritchie (dir.), Jason Statham, Brad Pitt</t>
   </si>
   <si>
-    <t>Brian De Palma (dir.), Al Pacino, Michelle Pfeiffer</t>
-  </si>
-  <si>
-    <t>Akira Kurosawa (dir.), Takashi Shimura, Nobuo Kaneko</t>
-  </si>
-  <si>
-    <t>Martin Scorsese (dir.), Robert De Niro, Jodie Foster</t>
-  </si>
-  <si>
-    <t>David Lean (dir.), Peter O'Toole, Alec Guinness</t>
-  </si>
-  <si>
     <t>Lee Unkrich (dir.), Tom Hanks, Tim Allen</t>
   </si>
   <si>
-    <t>Jean-Pierre Jeunet (dir.), Audrey Tautou, Mathieu Kassovitz</t>
-  </si>
-  <si>
-    <t>Elem Klimov (dir.), Aleksey Kravchenko, Olga Mironova</t>
-  </si>
-  <si>
-    <t>George Roy Hill (dir.), Paul Newman, Robert Redford</t>
-  </si>
-  <si>
-    <t>Asghar Farhadi (dir.), Payman Maadi, Leila Hatami</t>
-  </si>
-  <si>
-    <t>Fritz Lang (dir.), Brigitte Helm, Alfred Abel</t>
-  </si>
-  <si>
-    <t>Denis Villeneuve (dir.), Lubna Azabal, Mélissa Désormeaux-Poulin</t>
+    <t>Robert Mulligan (dir.), Gregory Peck, John Megna</t>
   </si>
   <si>
     <t>Sergio Leone (dir.), Clint Eastwood, Lee Van Cleef</t>
   </si>
   <si>
-    <t>Billy Wilder (dir.), Jack Lemmon, Shirley MacLaine</t>
-  </si>
-  <si>
-    <t>Billy Wilder (dir.), Fred MacMurray, Barbara Stanwyck</t>
-  </si>
-  <si>
-    <t>Robert Mulligan (dir.), Gregory Peck, John Megna</t>
-  </si>
-  <si>
     <t>Pete Docter (dir.), Edward Asner, Jordan Nagai</t>
   </si>
   <si>
     <t>Steven Spielberg (dir.), Harrison Ford, Sean Connery</t>
   </si>
   <si>
+    <t>Curtis Hanson (dir.), Kevin Spacey, Russell Crowe</t>
+  </si>
+  <si>
     <t>Michael Mann (dir.), Al Pacino, Robert De Niro</t>
   </si>
   <si>
-    <t>Curtis Hanson (dir.), Kevin Spacey, Russell Crowe</t>
+    <t>Akira Kurosawa (dir.), Toshirô Mifune, Machiko Kyô</t>
+  </si>
+  <si>
+    <t>Akira Kurosawa (dir.), Toshirô Mifune, Eijirô Tôno</t>
+  </si>
+  <si>
+    <t>Akira Kurosawa (dir.), Tatsuya Nakadai, Akira Terao</t>
   </si>
   <si>
     <t>John McTiernan (dir.), Bruce Willis, Alan Rickman</t>
   </si>
   <si>
+    <t>Peter Farrelly (dir.), Viggo Mortensen, Mahershala Ali</t>
+  </si>
+  <si>
+    <t>Oliver Hirschbiegel (dir.), Bruno Ganz, Alexandra Maria Lara</t>
+  </si>
+  <si>
     <t>Terry Gilliam (dir.), Graham Chapman, John Cleese</t>
   </si>
   <si>
-    <t>Peter Farrelly (dir.), Viggo Mortensen, Mahershala Ali</t>
-  </si>
-  <si>
-    <t>Akira Kurosawa (dir.), Toshirô Mifune, Eijirô Tôno</t>
-  </si>
-  <si>
-    <t>Akira Kurosawa (dir.), Toshirô Mifune, Machiko Kyô</t>
+    <t>Joseph L. Mankiewicz (dir.), Bette Davis, Anne Baxter</t>
+  </si>
+  <si>
+    <t>Billy Wilder (dir.), Marilyn Monroe, Tony Curtis</t>
   </si>
   <si>
     <t>Christopher Nolan (dir.), Christian Bale, Michael Caine</t>
   </si>
   <si>
-    <t>Oliver Hirschbiegel (dir.), Bruno Ganz, Alexandra Maria Lara</t>
+    <t>Clint Eastwood (dir.), Clint Eastwood, Gene Hackman</t>
   </si>
   <si>
     <t>Majid Majidi (dir.), Mohammad Amir Naji, Amir Farrokh Hashemian</t>
   </si>
   <si>
-    <t>Clint Eastwood (dir.), Clint Eastwood, Gene Hackman</t>
-  </si>
-  <si>
-    <t>Billy Wilder (dir.), Marilyn Monroe, Tony Curtis</t>
-  </si>
-  <si>
-    <t>Akira Kurosawa (dir.), Tatsuya Nakadai, Akira Terao</t>
-  </si>
-  <si>
     <t>Hayao Miyazaki (dir.), Chieko Baishô, Takuya Kimura</t>
   </si>
   <si>
-    <t>Joseph L. Mankiewicz (dir.), Bette Davis, Anne Baxter</t>
+    <t>Martin Scorsese (dir.), Leonardo DiCaprio, Jonah Hill</t>
+  </si>
+  <si>
+    <t>John Sturges (dir.), Steve McQueen, James Garner</t>
+  </si>
+  <si>
+    <t>Stanley Kramer (dir.), Spencer Tracy, Burt Lancaster</t>
+  </si>
+  <si>
+    <t>Martin Scorsese (dir.), Robert De Niro, Sharon Stone</t>
+  </si>
+  <si>
+    <t>John Huston (dir.), Humphrey Bogart, Walter Huston</t>
+  </si>
+  <si>
+    <t>Paul Thomas Anderson (dir.), Daniel Day-Lewis, Paul Dano</t>
+  </si>
+  <si>
+    <t>Guillermo del Toro (dir.), Ivana Baquero, Ariadna Gil</t>
   </si>
   <si>
     <t>Ron Howard (dir.), Russell Crowe, Ed Harris</t>
   </si>
   <si>
-    <t>Martin Scorsese (dir.), Robert De Niro, Sharon Stone</t>
-  </si>
-  <si>
-    <t>John Sturges (dir.), Steve McQueen, James Garner</t>
-  </si>
-  <si>
-    <t>Martin Scorsese (dir.), Leonardo DiCaprio, Jonah Hill</t>
-  </si>
-  <si>
-    <t>Guillermo del Toro (dir.), Ivana Baquero, Ariadna Gil</t>
-  </si>
-  <si>
     <t>Juan José Campanella (dir.), Ricardo Darín, Soledad Villamil</t>
   </si>
   <si>
+    <t>Martin Scorsese (dir.), Robert De Niro, Cathy Moriarty</t>
+  </si>
+  <si>
+    <t>Hayao Miyazaki (dir.), Hitoshi Takagi, Noriko Hidaka</t>
+  </si>
+  <si>
+    <t>Roman Polanski (dir.), Jack Nicholson, Faye Dunaway</t>
+  </si>
+  <si>
     <t>Guy Ritchie (dir.), Jason Flemyng, Dexter Fletcher</t>
   </si>
   <si>
-    <t>Paul Thomas Anderson (dir.), Daniel Day-Lewis, Paul Dano</t>
-  </si>
-  <si>
-    <t>Hayao Miyazaki (dir.), Hitoshi Takagi, Noriko Hidaka</t>
-  </si>
-  <si>
-    <t>Martin Scorsese (dir.), Robert De Niro, Cathy Moriarty</t>
-  </si>
-  <si>
-    <t>Stanley Kramer (dir.), Spencer Tracy, Burt Lancaster</t>
-  </si>
-  <si>
-    <t>John Huston (dir.), Humphrey Bogart, Walter Huston</t>
+    <t>Charles Chaplin (dir.), Charles Chaplin, Mack Swain</t>
+  </si>
+  <si>
+    <t>Martin Scorsese (dir.), Leonardo DiCaprio, Emily Mortimer</t>
+  </si>
+  <si>
+    <t>Ethan Coen (dir.), Tommy Lee Jones, Javier Bardem</t>
   </si>
   <si>
     <t>Alfred Hitchcock (dir.), Ray Milland, Grace Kelly</t>
@@ -1513,295 +1531,280 @@
     <t>Martin McDonagh (dir.), Frances McDormand, Woody Harrelson</t>
   </si>
   <si>
-    <t>Charles Chaplin (dir.), Charles Chaplin, Mack Swain</t>
-  </si>
-  <si>
-    <t>Roman Polanski (dir.), Jack Nicholson, Faye Dunaway</t>
-  </si>
-  <si>
-    <t>Martin Scorsese (dir.), Leonardo DiCaprio, Emily Mortimer</t>
-  </si>
-  <si>
-    <t>Hrishikesh Mukherjee (dir.), Rajesh Khanna, Amitabh Bachchan</t>
-  </si>
-  <si>
-    <t>Çagan Irmak (dir.), Çetin Tekindor, Fikret Kuskan</t>
-  </si>
-  <si>
-    <t>Ethan Coen (dir.), Tommy Lee Jones, Javier Bardem</t>
+    <t>Ingmar Bergman (dir.), Max von Sydow, Gunnar Björnstrand</t>
+  </si>
+  <si>
+    <t>David Lynch (dir.), Anthony Hopkins, John Hurt</t>
+  </si>
+  <si>
+    <t>John Carpenter (dir.), Kurt Russell, Wilford Brimley</t>
+  </si>
+  <si>
+    <t>M. Night Shyamalan (dir.), Bruce Willis, Haley Joel Osment</t>
+  </si>
+  <si>
+    <t>Sergio Pablos (dir.), Jason Schwartzman, J.K. Simmons</t>
+  </si>
+  <si>
+    <t>Carol Reed (dir.), Orson Welles, Joseph Cotten</t>
   </si>
   <si>
     <t>James McTeigue (dir.), Hugo Weaving, Natalie Portman</t>
   </si>
   <si>
-    <t>Ingmar Bergman (dir.), Max von Sydow, Gunnar Björnstrand</t>
-  </si>
-  <si>
     <t>Pete Docter (dir.), Amy Poehler, Bill Hader</t>
   </si>
   <si>
+    <t>Ingmar Bergman (dir.), Victor Sjöström, Bibi Andersson</t>
+  </si>
+  <si>
+    <t>Bong Joon Ho (dir.), Kang-ho Song, Kim Sang-kyung</t>
+  </si>
+  <si>
+    <t>Peter Weir (dir.), Jim Carrey, Ed Harris</t>
+  </si>
+  <si>
+    <t>Steven Spielberg (dir.), Sam Neill, Laura Dern</t>
+  </si>
+  <si>
+    <t>Ridley Scott (dir.), Harrison Ford, Rutger Hauer</t>
+  </si>
+  <si>
+    <t>Danny Boyle (dir.), Ewan McGregor, Ewen Bremner</t>
+  </si>
+  <si>
+    <t>David Lean (dir.), William Holden, Alec Guinness</t>
+  </si>
+  <si>
     <t>Gavin O'Connor (dir.), Tom Hardy, Nick Nolte</t>
   </si>
   <si>
-    <t>David Lynch (dir.), Anthony Hopkins, John Hurt</t>
-  </si>
-  <si>
-    <t>John Carpenter (dir.), Kurt Russell, Wilford Brimley</t>
-  </si>
-  <si>
-    <t>M. Night Shyamalan (dir.), Bruce Willis, Haley Joel Osment</t>
-  </si>
-  <si>
-    <t>Danny Boyle (dir.), Ewan McGregor, Ewen Bremner</t>
-  </si>
-  <si>
-    <t>Steven Spielberg (dir.), Sam Neill, Laura Dern</t>
-  </si>
-  <si>
-    <t>Peter Weir (dir.), Jim Carrey, Ed Harris</t>
+    <t>Joel Coen (dir.), William H. Macy, Frances McDormand</t>
+  </si>
+  <si>
+    <t>Andrew Stanton (dir.), Albert Brooks, Ellen DeGeneres</t>
   </si>
   <si>
     <t>Victor Fleming (dir.), Clark Gable, Vivien Leigh</t>
   </si>
   <si>
-    <t>Andrew Stanton (dir.), Albert Brooks, Ellen DeGeneres</t>
-  </si>
-  <si>
-    <t>Ingmar Bergman (dir.), Victor Sjöström, Bibi Andersson</t>
-  </si>
-  <si>
-    <t>Ridley Scott (dir.), Harrison Ford, Rutger Hauer</t>
+    <t>Cagan Irmak (dir.), Eser Sariyar, Çetin Tekindor</t>
+  </si>
+  <si>
+    <t>Quentin Tarantino (dir.), Uma Thurman, David Carradine</t>
+  </si>
+  <si>
+    <t>Yasujirô Ozu (dir.), Chishû Ryû, Chieko Higashiyama</t>
+  </si>
+  <si>
+    <t>Elia Kazan (dir.), Marlon Brando, Karl Malden</t>
   </si>
   <si>
     <t>Andrei Tarkovsky (dir.), Alisa Freyndlikh, Aleksandr Kaydanovskiy</t>
   </si>
   <si>
-    <t>Quentin Tarantino (dir.), Uma Thurman, David Carradine</t>
-  </si>
-  <si>
-    <t>David Lean (dir.), William Holden, Alec Guinness</t>
-  </si>
-  <si>
-    <t>Bong Joon Ho (dir.), Song Kang-Ho, Sang-kyung Kim</t>
-  </si>
-  <si>
-    <t>Joel Coen (dir.), William H. Macy, Frances McDormand</t>
+    <t>Damián Szifron (dir.), Darío Grandinetti, María Marull</t>
+  </si>
+  <si>
+    <t>Clyde Bruckman (dir.), Buster Keaton, Marion Mack</t>
+  </si>
+  <si>
+    <t>Buster Keaton (dir.), Buster Keaton, Kathryn McGuire</t>
+  </si>
+  <si>
+    <t>Michael Cimino (dir.), Robert De Niro, Christopher Walken</t>
+  </si>
+  <si>
+    <t>Clint Eastwood (dir.), Clint Eastwood, Bee Vang</t>
+  </si>
+  <si>
+    <t>Wes Anderson (dir.), Ralph Fiennes, F. Murray Abraham</t>
+  </si>
+  <si>
+    <t>Ingmar Bergman (dir.), Bibi Andersson, Liv Ullmann</t>
+  </si>
+  <si>
+    <t>Richard Linklater (dir.), Ethan Hawke, Julie Delpy</t>
+  </si>
+  <si>
+    <t>Adam Elliot (dir.), Toni Collette, Philip Seymour Hoffman</t>
+  </si>
+  <si>
+    <t>Denis Villeneuve (dir.), Hugh Jackman, Jake Gyllenhaal</t>
   </si>
   <si>
     <t>Lenny Abrahamson (dir.), Brie Larson, Jacob Tremblay</t>
   </si>
   <si>
-    <t>Sergio Pablos (dir.), Jason Schwartzman, J.K. Simmons</t>
-  </si>
-  <si>
-    <t>Clint Eastwood (dir.), Clint Eastwood, Bee Vang</t>
-  </si>
-  <si>
-    <t>Carol Reed (dir.), Orson Welles, Joseph Cotten</t>
-  </si>
-  <si>
-    <t>Yasujirô Ozu (dir.), Chishû Ryû, Chieko Higashiyama</t>
-  </si>
-  <si>
-    <t>Elia Kazan (dir.), Marlon Brando, Karl Malden</t>
-  </si>
-  <si>
-    <t>Damián Szifron (dir.), Darío Grandinetti, María Marull</t>
+    <t>Frank Capra (dir.), James Stewart, Jean Arthur</t>
+  </si>
+  <si>
+    <t>Jim Sheridan (dir.), Daniel Day-Lewis, Pete Postlethwaite</t>
+  </si>
+  <si>
+    <t>Steven Spielberg (dir.), Leonardo DiCaprio, Tom Hanks</t>
+  </si>
+  <si>
+    <t>David Fincher (dir.), Ben Affleck, Rosamund Pike</t>
+  </si>
+  <si>
+    <t>Mel Gibson (dir.), Andrew Garfield, Sam Worthington</t>
+  </si>
+  <si>
+    <t>Ernst Lubitsch (dir.), Carole Lombard, Jack Benny</t>
+  </si>
+  <si>
+    <t>Stanley Kubrick (dir.), Ryan O'Neal, Marisa Berenson</t>
+  </si>
+  <si>
+    <t>Sriram Raghavan (dir.), Ayushmann Khurrana, Tabu</t>
+  </si>
+  <si>
+    <t>Carl Theodor Dreyer (dir.), Maria Falconetti, Eugene Silvain</t>
+  </si>
+  <si>
+    <t>James Mangold (dir.), Matt Damon, Christian Bale</t>
+  </si>
+  <si>
+    <t>Joel Coen (dir.), Jeff Bridges, John Goodman</t>
+  </si>
+  <si>
+    <t>Steve McQueen (dir.), Chiwetel Ejiofor, Michael Kenneth Williams</t>
+  </si>
+  <si>
+    <t>Dean DeBlois (dir.), Jay Baruchel, Gerard Butler</t>
+  </si>
+  <si>
+    <t>George Miller (dir.), Tom Hardy, Charlize Theron</t>
+  </si>
+  <si>
+    <t>Peter Weir (dir.), Robin Williams, Robert Sean Leonard</t>
+  </si>
+  <si>
+    <t>William Wyler (dir.), Charlton Heston, Jack Hawkins</t>
+  </si>
+  <si>
+    <t>Clint Eastwood (dir.), Hilary Swank, Clint Eastwood</t>
+  </si>
+  <si>
+    <t>Henri-Georges Clouzot (dir.), Yves Montand, Charles Vanel</t>
+  </si>
+  <si>
+    <t>David Yates (dir.), Daniel Radcliffe, Emma Watson</t>
   </si>
   <si>
     <t>Ingmar Bergman (dir.), Ingrid Bergman, Liv Ullmann</t>
   </si>
   <si>
-    <t>Michael Cimino (dir.), Robert De Niro, Christopher Walken</t>
-  </si>
-  <si>
-    <t>Jim Sheridan (dir.), Daniel Day-Lewis, Pete Postlethwaite</t>
-  </si>
-  <si>
-    <t>Adam Elliot (dir.), Toni Collette, Philip Seymour Hoffman</t>
-  </si>
-  <si>
-    <t>David Fincher (dir.), Ben Affleck, Rosamund Pike</t>
-  </si>
-  <si>
-    <t>Wes Anderson (dir.), Ralph Fiennes, F. Murray Abraham</t>
-  </si>
-  <si>
-    <t>Mel Gibson (dir.), Andrew Garfield, Sam Worthington</t>
-  </si>
-  <si>
-    <t>Richard Linklater (dir.), Ethan Hawke, Julie Delpy</t>
-  </si>
-  <si>
-    <t>Steven Spielberg (dir.), Leonardo DiCaprio, Tom Hanks</t>
-  </si>
-  <si>
-    <t>Sriram Raghavan (dir.), Ayushmann Khurrana, Tabu</t>
-  </si>
-  <si>
-    <t>Ingmar Bergman (dir.), Bibi Andersson, Liv Ullmann</t>
-  </si>
-  <si>
-    <t>Joel Coen (dir.), Jeff Bridges, John Goodman</t>
-  </si>
-  <si>
-    <t>Denis Villeneuve (dir.), Hugh Jackman, Jake Gyllenhaal</t>
-  </si>
-  <si>
-    <t>Buster Keaton (dir.), Buster Keaton, Kathryn McGuire</t>
-  </si>
-  <si>
-    <t>Ernst Lubitsch (dir.), Carole Lombard, Jack Benny</t>
-  </si>
-  <si>
-    <t>Clyde Bruckman (dir.), Buster Keaton, Marion Mack</t>
-  </si>
-  <si>
-    <t>Dean DeBlois (dir.), Jay Baruchel, Gerard Butler</t>
+    <t>Sidney Lumet (dir.), Faye Dunaway, William Holden</t>
+  </si>
+  <si>
+    <t>Rob Reiner (dir.), Wil Wheaton, River Phoenix</t>
+  </si>
+  <si>
+    <t>Park Chan-Wook (dir.), Kim Min-hee, Ha Jung-woo</t>
+  </si>
+  <si>
+    <t>Stuart Rosenberg (dir.), Paul Newman, George Kennedy</t>
+  </si>
+  <si>
+    <t>François Truffaut (dir.), Jean-Pierre Léaud, Albert Rémy</t>
+  </si>
+  <si>
+    <t>James Mangold (dir.), Hugh Jackman, Patrick Stewart</t>
+  </si>
+  <si>
+    <t>Lasse Hallström (dir.), Richard Gere, Joan Allen</t>
+  </si>
+  <si>
+    <t>Mathieu Kassovitz (dir.), Vincent Cassel, Hubert Koundé</t>
   </si>
   <si>
     <t>Yavuz Turgul (dir.), Sener Sen, Ugur Yücel</t>
   </si>
   <si>
-    <t>James Mangold (dir.), Matt Damon, Christian Bale</t>
-  </si>
-  <si>
-    <t>Steve McQueen (dir.), Chiwetel Ejiofor, Michael Kenneth Williams</t>
-  </si>
-  <si>
-    <t>Frank Capra (dir.), James Stewart, Jean Arthur</t>
-  </si>
-  <si>
-    <t>Emir Kusturica (dir.), Davor Dujmovic, Bora Todorovic</t>
-  </si>
-  <si>
-    <t>Stanley Kubrick (dir.), Ryan O'Neal, Marisa Berenson</t>
-  </si>
-  <si>
-    <t>George Miller (dir.), Tom Hardy, Charlize Theron</t>
-  </si>
-  <si>
-    <t>Clint Eastwood (dir.), Hilary Swank, Clint Eastwood</t>
-  </si>
-  <si>
-    <t>Sidney Lumet (dir.), Faye Dunaway, William Holden</t>
-  </si>
-  <si>
-    <t>Rob Reiner (dir.), Wil Wheaton, River Phoenix</t>
-  </si>
-  <si>
-    <t>Peter Weir (dir.), Robin Williams, Robert Sean Leonard</t>
-  </si>
-  <si>
-    <t>Stuart Rosenberg (dir.), Paul Newman, George Kennedy</t>
-  </si>
-  <si>
-    <t>Gayatri (dir.), Madhavan, Vijay Sethupathi</t>
-  </si>
-  <si>
-    <t>William Wyler (dir.), Charlton Heston, Jack Hawkins</t>
-  </si>
-  <si>
-    <t>David Yates (dir.), Daniel Radcliffe, Emma Watson</t>
-  </si>
-  <si>
-    <t>Lasse Hallström (dir.), Richard Gere, Joan Allen</t>
-  </si>
-  <si>
     <t>Oliver Stone (dir.), Charlie Sheen, Tom Berenger</t>
   </si>
   <si>
+    <t>Tom McCarthy (dir.), Mark Ruffalo, Michael Keaton</t>
+  </si>
+  <si>
+    <t>Anurag Kashyap (dir.), Manoj Bajpayee, Richa Chadha</t>
+  </si>
+  <si>
+    <t>Terry Jones (dir.), Graham Chapman, John Cleese</t>
+  </si>
+  <si>
+    <t>Terry George (dir.), Don Cheadle, Sophie Okonedo</t>
+  </si>
+  <si>
+    <t>Pete Docter (dir.), Billy Crystal, John Goodman</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock (dir.), Laurence Olivier, Joan Fontaine</t>
+  </si>
+  <si>
+    <t>Naoko Yamada (dir.), Miyu Irino, Saori Hayami</t>
+  </si>
+  <si>
+    <t>Ron Howard (dir.), Daniel Brühl, Chris Hemsworth</t>
+  </si>
+  <si>
     <t>Sean Penn (dir.), Emile Hirsch, Vince Vaughn</t>
   </si>
   <si>
-    <t>James Mangold (dir.), Hugh Jackman, Patrick Stewart</t>
-  </si>
-  <si>
-    <t>Chan-wook Park (dir.), Min-hee Kim, Jung-woo Ha</t>
-  </si>
-  <si>
-    <t>Henri-Georges Clouzot (dir.), Yves Montand, Charles Vanel</t>
-  </si>
-  <si>
-    <t>Ron Howard (dir.), Daniel Brühl, Chris Hemsworth</t>
-  </si>
-  <si>
-    <t>Terry Jones (dir.), Graham Chapman, John Cleese</t>
-  </si>
-  <si>
-    <t>François Truffaut (dir.), Jean-Pierre Léaud, Albert Rémy</t>
-  </si>
-  <si>
-    <t>Tom McCarthy (dir.), Mark Ruffalo, Michael Keaton</t>
-  </si>
-  <si>
-    <t>Carl Theodor Dreyer (dir.), Maria Falconetti, Eugene Silvain</t>
-  </si>
-  <si>
-    <t>Terry George (dir.), Don Cheadle, Sophie Okonedo</t>
-  </si>
-  <si>
     <t>Andrei Tarkovsky (dir.), Anatoliy Solonitsyn, Ivan Lapikov</t>
   </si>
   <si>
-    <t>Mathieu Kassovitz (dir.), Vincent Cassel, Hubert Koundé</t>
-  </si>
-  <si>
     <t>Alejandro G. Iñárritu (dir.), Emilio Echevarría, Gael García Bernal</t>
   </si>
   <si>
+    <t>Kar-Wai Wong (dir.), Tony Chiu-Wai Leung, Maggie Cheung</t>
+  </si>
+  <si>
     <t>John G. Avildsen (dir.), Sylvester Stallone, Talia Shire</t>
   </si>
   <si>
+    <t>Frank Capra (dir.), Clark Gable, Claudette Colbert</t>
+  </si>
+  <si>
     <t>Hayao Miyazaki (dir.), Sumi Shimamoto, Mahito Tsujimura</t>
   </si>
   <si>
-    <t>Anurag Kashyap (dir.), Manoj Bajpayee, Richa Chadha</t>
-  </si>
-  <si>
-    <t>Pete Docter (dir.), Billy Crystal, John Goodman</t>
+    <t>Hideaki Anno (dir.), Megumi Ogata, Megumi Hayashibara</t>
+  </si>
+  <si>
+    <t>Gillo Pontecorvo (dir.), Brahim Hadjadj, Jean Martin</t>
+  </si>
+  <si>
+    <t>Ingmar Bergman (dir.), Bertil Guve, Pernilla Allwin</t>
+  </si>
+  <si>
+    <t>Krzysztof Kieslowski (dir.), Irène Jacob, Jean-Louis Trintignant</t>
+  </si>
+  <si>
+    <t>Rob Reiner (dir.), Cary Elwes, Mandy Patinkin</t>
   </si>
   <si>
     <t>Jules Dassin (dir.), Jean Servais, Carl Möhner</t>
   </si>
   <si>
-    <t>Alfred Hitchcock (dir.), Laurence Olivier, Joan Fontaine</t>
-  </si>
-  <si>
-    <t>Rakeysh Omprakash Mehra (dir.), Aamir Khan, Soha Ali Khan</t>
-  </si>
-  <si>
-    <t>Kar-Wai Wong (dir.), Tony Chiu-Wai Leung, Maggie Cheung</t>
-  </si>
-  <si>
-    <t>Céline Sciamma (dir.), Noémie Merlant, Adèle Haenel</t>
-  </si>
-  <si>
     <t>Wim Wenders (dir.), Harry Dean Stanton, Nastassja Kinski</t>
   </si>
   <si>
-    <t>Frank Capra (dir.), Clark Gable, Claudette Colbert</t>
-  </si>
-  <si>
-    <t>Nishikant Kamat (dir.), Ajay Devgn, Shriya Saran</t>
-  </si>
-  <si>
-    <t>Oriol Paulo (dir.), Mario Casas, Ana Wagener</t>
-  </si>
-  <si>
-    <t>Tate Taylor (dir.), Emma Stone, Viola Davis</t>
-  </si>
-  <si>
-    <t>Rob Reiner (dir.), Cary Elwes, Mandy Patinkin</t>
-  </si>
-  <si>
-    <t>Gillo Pontecorvo (dir.), Brahim Hadjadj, Jean Martin</t>
-  </si>
-  <si>
-    <t>Zaza Urushadze (dir.), Lembit Ulfsak, Elmo Nüganen</t>
-  </si>
-  <si>
-    <t>Naoko Yamada (dir.), Miyu Irino, Saori Hayami</t>
+    <t>Haruo Sotozaki (dir.), Natsuki Hanae, Akari Kitô</t>
+  </si>
+  <si>
+    <t>F.W. Murnau (dir.), George O'Brien, Janet Gaynor</t>
+  </si>
+  <si>
+    <t>Federico Fellini (dir.), Giulietta Masina, François Périer</t>
+  </si>
+  <si>
+    <t>Ram Kumar (dir.), Vishnu Vishal, Amala Paul</t>
+  </si>
+  <si>
+    <t>Mehmet Ada Öztekin (dir.), Aras Bulut Iynemli, Nisa Sofiya Aksongur</t>
   </si>
 </sst>
 </file>
@@ -2377,7 +2380,7 @@
         <v>253</v>
       </c>
       <c r="D13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E13" t="s">
         <v>361</v>
@@ -2646,7 +2649,7 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D29" t="s">
         <v>344</v>
@@ -2663,7 +2666,7 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D30" t="s">
         <v>344</v>
@@ -2714,7 +2717,7 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="D33" t="s">
         <v>344</v>
@@ -2731,7 +2734,7 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D34" t="s">
         <v>344</v>
@@ -2748,7 +2751,7 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="D35" t="s">
         <v>344</v>
@@ -2765,7 +2768,7 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D36" t="s">
         <v>344</v>
@@ -2799,7 +2802,7 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="D38" t="s">
         <v>344</v>
@@ -2816,7 +2819,7 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D39" t="s">
         <v>344</v>
@@ -2833,7 +2836,7 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="D40" t="s">
         <v>344</v>
@@ -2850,7 +2853,7 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D41" t="s">
         <v>344</v>
@@ -2918,7 +2921,7 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D45" t="s">
         <v>344</v>
@@ -2935,7 +2938,7 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D46" t="s">
         <v>344</v>
@@ -2952,7 +2955,7 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D47" t="s">
         <v>344</v>
@@ -2969,7 +2972,7 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D48" t="s">
         <v>344</v>
@@ -3020,7 +3023,7 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="D51" t="s">
         <v>345</v>
@@ -3037,7 +3040,7 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D52" t="s">
         <v>345</v>
@@ -3054,7 +3057,7 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="D53" t="s">
         <v>345</v>
@@ -3071,7 +3074,7 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D54" t="s">
         <v>345</v>
@@ -3088,7 +3091,7 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D55" t="s">
         <v>345</v>
@@ -3105,7 +3108,7 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="D56" t="s">
         <v>345</v>
@@ -3128,7 +3131,7 @@
         <v>345</v>
       </c>
       <c r="E57" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3139,7 +3142,7 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D58" t="s">
         <v>345</v>
@@ -3156,7 +3159,7 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D59" t="s">
         <v>345</v>
@@ -3173,7 +3176,7 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="D60" t="s">
         <v>345</v>
@@ -3190,7 +3193,7 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="D61" t="s">
         <v>345</v>
@@ -3207,7 +3210,7 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D62" t="s">
         <v>345</v>
@@ -3224,7 +3227,7 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D63" t="s">
         <v>345</v>
@@ -3241,7 +3244,7 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="D64" t="s">
         <v>345</v>
@@ -3258,7 +3261,7 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="D65" t="s">
         <v>345</v>
@@ -3292,7 +3295,7 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="D67" t="s">
         <v>345</v>
@@ -3309,7 +3312,7 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="D68" t="s">
         <v>345</v>
@@ -3326,10 +3329,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="D69" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E69" t="s">
         <v>415</v>
@@ -3343,10 +3346,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D70" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E70" t="s">
         <v>416</v>
@@ -3377,7 +3380,7 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D72" t="s">
         <v>346</v>
@@ -3394,7 +3397,7 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D73" t="s">
         <v>346</v>
@@ -3445,7 +3448,7 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="D76" t="s">
         <v>346</v>
@@ -3462,7 +3465,7 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D77" t="s">
         <v>346</v>
@@ -3479,7 +3482,7 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="D78" t="s">
         <v>346</v>
@@ -3496,7 +3499,7 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D79" t="s">
         <v>346</v>
@@ -3513,7 +3516,7 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="D80" t="s">
         <v>346</v>
@@ -3530,7 +3533,7 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="D81" t="s">
         <v>346</v>
@@ -3581,7 +3584,7 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D84" t="s">
         <v>346</v>
@@ -3598,7 +3601,7 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="D85" t="s">
         <v>346</v>
@@ -3615,7 +3618,7 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D86" t="s">
         <v>346</v>
@@ -3632,7 +3635,7 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="D87" t="s">
         <v>346</v>
@@ -3649,7 +3652,7 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D88" t="s">
         <v>346</v>
@@ -3666,7 +3669,7 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="D89" t="s">
         <v>346</v>
@@ -3683,7 +3686,7 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D90" t="s">
         <v>346</v>
@@ -3700,7 +3703,7 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D91" t="s">
         <v>346</v>
@@ -3717,7 +3720,7 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="D92" t="s">
         <v>346</v>
@@ -3751,7 +3754,7 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="D94" t="s">
         <v>346</v>
@@ -3768,7 +3771,7 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D95" t="s">
         <v>346</v>
@@ -3785,7 +3788,7 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D96" t="s">
         <v>346</v>
@@ -3802,7 +3805,7 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D97" t="s">
         <v>346</v>
@@ -3819,7 +3822,7 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D98" t="s">
         <v>346</v>
@@ -3839,7 +3842,7 @@
         <v>308</v>
       </c>
       <c r="D99" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E99" t="s">
         <v>445</v>
@@ -3853,10 +3856,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="D100" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E100" t="s">
         <v>446</v>
@@ -3870,10 +3873,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D101" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E101" t="s">
         <v>447</v>
@@ -3887,10 +3890,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D102" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E102" t="s">
         <v>448</v>
@@ -3907,7 +3910,7 @@
         <v>311</v>
       </c>
       <c r="D103" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E103" t="s">
         <v>449</v>
@@ -3921,7 +3924,7 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="D104" t="s">
         <v>347</v>
@@ -3938,7 +3941,7 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D105" t="s">
         <v>347</v>
@@ -3955,7 +3958,7 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="D106" t="s">
         <v>347</v>
@@ -3972,7 +3975,7 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D107" t="s">
         <v>347</v>
@@ -3989,7 +3992,7 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D108" t="s">
         <v>347</v>
@@ -4023,7 +4026,7 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="D110" t="s">
         <v>347</v>
@@ -4040,7 +4043,7 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c r="D111" t="s">
         <v>347</v>
@@ -4057,7 +4060,7 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="D112" t="s">
         <v>347</v>
@@ -4074,7 +4077,7 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="D113" t="s">
         <v>347</v>
@@ -4091,7 +4094,7 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="D114" t="s">
         <v>347</v>
@@ -4108,7 +4111,7 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="D115" t="s">
         <v>347</v>
@@ -4125,7 +4128,7 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="D116" t="s">
         <v>347</v>
@@ -4142,7 +4145,7 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D117" t="s">
         <v>347</v>
@@ -4159,7 +4162,7 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="D118" t="s">
         <v>347</v>
@@ -4176,7 +4179,7 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="D119" t="s">
         <v>347</v>
@@ -4193,7 +4196,7 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="D120" t="s">
         <v>347</v>
@@ -4210,7 +4213,7 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D121" t="s">
         <v>347</v>
@@ -4227,7 +4230,7 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="D122" t="s">
         <v>347</v>
@@ -4261,7 +4264,7 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="D124" t="s">
         <v>347</v>
@@ -4278,7 +4281,7 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="D125" t="s">
         <v>347</v>
@@ -4295,7 +4298,7 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D126" t="s">
         <v>347</v>
@@ -4312,7 +4315,7 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D127" t="s">
         <v>347</v>
@@ -4329,7 +4332,7 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D128" t="s">
         <v>347</v>
@@ -4346,7 +4349,7 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D129" t="s">
         <v>347</v>
@@ -4363,7 +4366,7 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="D130" t="s">
         <v>347</v>
@@ -4380,7 +4383,7 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="D131" t="s">
         <v>347</v>
@@ -4397,7 +4400,7 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="D132" t="s">
         <v>347</v>
@@ -4414,7 +4417,7 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="D133" t="s">
         <v>347</v>
@@ -4431,7 +4434,7 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="D134" t="s">
         <v>347</v>
@@ -4448,7 +4451,7 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="D135" t="s">
         <v>347</v>
@@ -4465,7 +4468,7 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="D136" t="s">
         <v>347</v>
@@ -4482,7 +4485,7 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D137" t="s">
         <v>347</v>
@@ -4499,7 +4502,7 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D138" t="s">
         <v>347</v>
@@ -4516,7 +4519,7 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D139" t="s">
         <v>347</v>
@@ -4533,7 +4536,7 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="D140" t="s">
         <v>347</v>
@@ -4550,7 +4553,7 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="D141" t="s">
         <v>347</v>
@@ -4567,7 +4570,7 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="D142" t="s">
         <v>347</v>
@@ -4584,7 +4587,7 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="D143" t="s">
         <v>347</v>
@@ -4601,10 +4604,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="D144" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E144" t="s">
         <v>490</v>
@@ -4618,10 +4621,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="D145" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E145" t="s">
         <v>491</v>
@@ -4635,10 +4638,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D146" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E146" t="s">
         <v>492</v>
@@ -4652,10 +4655,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D147" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E147" t="s">
         <v>493</v>
@@ -4669,7 +4672,7 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D148" t="s">
         <v>348</v>
@@ -4686,7 +4689,7 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D149" t="s">
         <v>348</v>
@@ -4703,7 +4706,7 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="D150" t="s">
         <v>348</v>
@@ -4720,7 +4723,7 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="D151" t="s">
         <v>348</v>
@@ -4737,7 +4740,7 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="D152" t="s">
         <v>348</v>
@@ -4754,7 +4757,7 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="D153" t="s">
         <v>348</v>
@@ -4771,7 +4774,7 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="D154" t="s">
         <v>348</v>
@@ -4805,7 +4808,7 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D156" t="s">
         <v>348</v>
@@ -4822,7 +4825,7 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="D157" t="s">
         <v>348</v>
@@ -4839,7 +4842,7 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D158" t="s">
         <v>348</v>
@@ -4856,7 +4859,7 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>321</v>
+        <v>257</v>
       </c>
       <c r="D159" t="s">
         <v>348</v>
@@ -4873,7 +4876,7 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D160" t="s">
         <v>348</v>
@@ -4890,7 +4893,7 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D161" t="s">
         <v>348</v>
@@ -4907,7 +4910,7 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="D162" t="s">
         <v>348</v>
@@ -4924,7 +4927,7 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="D163" t="s">
         <v>348</v>
@@ -4941,7 +4944,7 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D164" t="s">
         <v>348</v>
@@ -4958,7 +4961,7 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="D165" t="s">
         <v>348</v>
@@ -4975,7 +4978,7 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D166" t="s">
         <v>348</v>
@@ -4992,7 +4995,7 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D167" t="s">
         <v>348</v>
@@ -5009,7 +5012,7 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D168" t="s">
         <v>348</v>
@@ -5026,7 +5029,7 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="D169" t="s">
         <v>348</v>
@@ -5043,7 +5046,7 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D170" t="s">
         <v>348</v>
@@ -5060,7 +5063,7 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>257</v>
+        <v>325</v>
       </c>
       <c r="D171" t="s">
         <v>348</v>
@@ -5077,7 +5080,7 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D172" t="s">
         <v>348</v>
@@ -5094,7 +5097,7 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="D173" t="s">
         <v>348</v>
@@ -5111,7 +5114,7 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="D174" t="s">
         <v>348</v>
@@ -5128,7 +5131,7 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>257</v>
+        <v>328</v>
       </c>
       <c r="D175" t="s">
         <v>348</v>
@@ -5162,7 +5165,7 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D177" t="s">
         <v>348</v>
@@ -5179,7 +5182,7 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D178" t="s">
         <v>348</v>
@@ -5196,7 +5199,7 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="D179" t="s">
         <v>348</v>
@@ -5213,7 +5216,7 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="D180" t="s">
         <v>348</v>
@@ -5230,7 +5233,7 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>328</v>
+        <v>268</v>
       </c>
       <c r="D181" t="s">
         <v>348</v>
@@ -5247,7 +5250,7 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="D182" t="s">
         <v>348</v>
@@ -5264,7 +5267,7 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D183" t="s">
         <v>348</v>
@@ -5281,7 +5284,7 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="D184" t="s">
         <v>348</v>
@@ -5298,7 +5301,7 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D185" t="s">
         <v>348</v>
@@ -5315,7 +5318,7 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D186" t="s">
         <v>348</v>
@@ -5332,7 +5335,7 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D187" t="s">
         <v>348</v>
@@ -5349,7 +5352,7 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="D188" t="s">
         <v>348</v>
@@ -5366,7 +5369,7 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D189" t="s">
         <v>348</v>
@@ -5383,7 +5386,7 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D190" t="s">
         <v>348</v>
@@ -5400,7 +5403,7 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D191" t="s">
         <v>348</v>
@@ -5414,10 +5417,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="C192" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="D192" t="s">
         <v>348</v>
@@ -5431,10 +5434,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="D193" t="s">
         <v>348</v>
@@ -5448,10 +5451,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="D194" t="s">
         <v>348</v>
@@ -5465,10 +5468,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D195" t="s">
         <v>348</v>
@@ -5482,10 +5485,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D196" t="s">
         <v>348</v>
@@ -5499,10 +5502,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="D197" t="s">
         <v>348</v>
@@ -5519,7 +5522,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="D198" t="s">
         <v>348</v>
@@ -5536,7 +5539,7 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D199" t="s">
         <v>348</v>
@@ -5553,7 +5556,7 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>332</v>
+        <v>267</v>
       </c>
       <c r="D200" t="s">
         <v>348</v>
@@ -5570,7 +5573,7 @@
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="D201" t="s">
         <v>348</v>
@@ -5587,7 +5590,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D202" t="s">
         <v>348</v>
@@ -5621,7 +5624,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="D204" t="s">
         <v>348</v>
@@ -5638,7 +5641,7 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D205" t="s">
         <v>348</v>
@@ -5655,7 +5658,7 @@
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="D206" t="s">
         <v>348</v>
@@ -5672,7 +5675,7 @@
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>267</v>
+        <v>327</v>
       </c>
       <c r="D207" t="s">
         <v>348</v>
@@ -5689,7 +5692,7 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D208" t="s">
         <v>348</v>
@@ -5706,7 +5709,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D209" t="s">
         <v>348</v>
@@ -5723,7 +5726,7 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D210" t="s">
         <v>348</v>
@@ -5740,7 +5743,7 @@
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D211" t="s">
         <v>348</v>
@@ -5757,7 +5760,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="D212" t="s">
         <v>348</v>
@@ -5791,7 +5794,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="D214" t="s">
         <v>348</v>
@@ -5808,7 +5811,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D215" t="s">
         <v>348</v>
@@ -5825,7 +5828,7 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D216" t="s">
         <v>348</v>
@@ -5842,7 +5845,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="D217" t="s">
         <v>348</v>
@@ -5859,7 +5862,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="D218" t="s">
         <v>348</v>
@@ -5876,7 +5879,7 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D219" t="s">
         <v>348</v>
@@ -5893,10 +5896,10 @@
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D220" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E220" t="s">
         <v>566</v>
@@ -5910,7 +5913,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="D221" t="s">
         <v>349</v>
@@ -5927,7 +5930,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D222" t="s">
         <v>349</v>
@@ -5944,7 +5947,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="D223" t="s">
         <v>349</v>
@@ -5961,7 +5964,7 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="D224" t="s">
         <v>349</v>
@@ -5978,7 +5981,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="D225" t="s">
         <v>349</v>
@@ -5995,7 +5998,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="D226" t="s">
         <v>349</v>
@@ -6012,7 +6015,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="D227" t="s">
         <v>349</v>
@@ -6029,7 +6032,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="D228" t="s">
         <v>349</v>
@@ -6046,7 +6049,7 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="D229" t="s">
         <v>349</v>
@@ -6063,7 +6066,7 @@
         <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="D230" t="s">
         <v>349</v>
@@ -6080,7 +6083,7 @@
         <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="D231" t="s">
         <v>349</v>
@@ -6097,7 +6100,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D232" t="s">
         <v>349</v>
@@ -6114,7 +6117,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="D233" t="s">
         <v>349</v>
@@ -6131,7 +6134,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D234" t="s">
         <v>349</v>
@@ -6148,7 +6151,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="D235" t="s">
         <v>349</v>
@@ -6165,7 +6168,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="D236" t="s">
         <v>349</v>
@@ -6182,7 +6185,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="D237" t="s">
         <v>349</v>
@@ -6199,7 +6202,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="D238" t="s">
         <v>349</v>
@@ -6216,13 +6219,13 @@
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="D239" t="s">
         <v>349</v>
       </c>
       <c r="E239" t="s">
-        <v>538</v>
+        <v>585</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6233,13 +6236,13 @@
         <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="D240" t="s">
         <v>349</v>
       </c>
       <c r="E240" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6250,13 +6253,13 @@
         <v>242</v>
       </c>
       <c r="C241" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="D241" t="s">
         <v>349</v>
       </c>
       <c r="E241" t="s">
-        <v>586</v>
+        <v>536</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6267,7 +6270,7 @@
         <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="D242" t="s">
         <v>349</v>
@@ -6284,7 +6287,7 @@
         <v>244</v>
       </c>
       <c r="C243" t="s">
-        <v>336</v>
+        <v>253</v>
       </c>
       <c r="D243" t="s">
         <v>349</v>
@@ -6301,7 +6304,7 @@
         <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D244" t="s">
         <v>349</v>
@@ -6318,7 +6321,7 @@
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D245" t="s">
         <v>349</v>
@@ -6335,7 +6338,7 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="D246" t="s">
         <v>349</v>
@@ -6352,7 +6355,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D247" t="s">
         <v>349</v>
@@ -6369,7 +6372,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="D248" t="s">
         <v>349</v>
@@ -6386,7 +6389,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="D249" t="s">
         <v>349</v>
@@ -6403,13 +6406,13 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D250" t="s">
         <v>349</v>
       </c>
       <c r="E250" t="s">
-        <v>385</v>
+        <v>595</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6420,13 +6423,13 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="D251" t="s">
         <v>349</v>
       </c>
       <c r="E251" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
